--- a/ASP_AIS_Policlinic/wwwroot/Reports/report_diseasesType.xlsx
+++ b/ASP_AIS_Policlinic/wwwroot/Reports/report_diseasesType.xlsx
@@ -16,9 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
-  <si>
-    <t>Список заболеваний по диагнозу</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+  <si>
+    <t>Список заболеваний по диагнозу Близорукость</t>
   </si>
   <si>
     <t>№</t>
@@ -75,13 +75,22 @@
     <t>Владимирович</t>
   </si>
   <si>
-    <t>Владислав</t>
-  </si>
-  <si>
-    <t>Захаров</t>
+    <t>Влад</t>
+  </si>
+  <si>
+    <t>Захар</t>
   </si>
   <si>
     <t>Олегович</t>
+  </si>
+  <si>
+    <t>Иван</t>
+  </si>
+  <si>
+    <t>Семенов</t>
+  </si>
+  <si>
+    <t>Святославич</t>
   </si>
 </sst>
 </file>
@@ -495,7 +504,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="2">
-        <v>44986</v>
+        <v>45006</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>11</v>
@@ -521,10 +530,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="0">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2">
-        <v>45031</v>
+        <v>45040</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>13</v>
@@ -550,10 +559,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="0">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
-        <v>45030</v>
+        <v>45044</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>13</v>
@@ -565,13 +574,13 @@
         <v>18</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6">
@@ -579,19 +588,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="0">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2">
-        <v>45040</v>
+        <v>45070</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G6" s="0" t="s">
         <v>19</v>
